--- a/заказы/статистика филиалы/2024/01,24/10,01,24 КИ/дв 10,01,24 лгрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/10,01,24 КИ/дв 10,01,24 лгрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\10,01,24 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\10,01,24 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66026F7-C90C-4B5A-9DF9-9F16FA16296E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF876CF-6D30-45A9-9BC3-647719817CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7981,11 +7981,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Z109"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W86" sqref="W86"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -8005,18 +8005,18 @@
     <col min="24" max="16384" width="10.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="12.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="12.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="6" t="s">
@@ -8132,7 +8132,7 @@
       <c r="W4" s="14"/>
       <c r="X4" s="18"/>
     </row>
-    <row r="5" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
@@ -8200,7 +8200,7 @@
         <v>17123.708099999996</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
@@ -8261,12 +8261,8 @@
         <f>O6*G6</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="7">
-        <f>M6*G6</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>10</v>
       </c>
@@ -8327,12 +8323,8 @@
         <f t="shared" ref="X7:X70" si="9">O7*G7</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="7">
-        <f t="shared" ref="Z7:Z70" si="10">M7*G7</f>
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
@@ -8404,12 +8396,8 @@
         <f t="shared" si="9"/>
         <v>350.97819999999979</v>
       </c>
-      <c r="Z8" s="7">
-        <f t="shared" si="10"/>
-        <v>116.29159999999999</v>
-      </c>
     </row>
-    <row r="9" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
@@ -8478,12 +8466,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="7">
-        <f t="shared" si="10"/>
-        <v>34.190600000000003</v>
-      </c>
     </row>
-    <row r="10" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -8523,7 +8507,7 @@
         <v>40.150199999999998</v>
       </c>
       <c r="N10" s="32">
-        <f t="shared" ref="N10:N15" si="11">12*M10-F10</f>
+        <f t="shared" ref="N10:N15" si="10">12*M10-F10</f>
         <v>28.301400000000001</v>
       </c>
       <c r="O10" s="37">
@@ -8555,12 +8539,8 @@
         <f t="shared" si="9"/>
         <v>28.301400000000001</v>
       </c>
-      <c r="Z10" s="7">
-        <f t="shared" si="10"/>
-        <v>40.150199999999998</v>
-      </c>
     </row>
-    <row r="11" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>14</v>
       </c>
@@ -8629,12 +8609,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="7">
-        <f t="shared" si="10"/>
-        <v>23.855799999999999</v>
-      </c>
     </row>
-    <row r="12" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>15</v>
       </c>
@@ -8674,7 +8650,7 @@
         <v>3.2</v>
       </c>
       <c r="N12" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>16.400000000000006</v>
       </c>
       <c r="O12" s="37">
@@ -8706,12 +8682,8 @@
         <f t="shared" si="9"/>
         <v>8.2000000000000028</v>
       </c>
-      <c r="Z12" s="7">
-        <f>M12*G12</f>
-        <v>1.6</v>
-      </c>
     </row>
-    <row r="13" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
@@ -8783,12 +8755,8 @@
         <f t="shared" si="9"/>
         <v>97.951050000000009</v>
       </c>
-      <c r="Z13" s="7">
-        <f t="shared" si="10"/>
-        <v>13.719240000000001</v>
-      </c>
     </row>
-    <row r="14" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
@@ -8860,12 +8828,8 @@
         <f t="shared" si="9"/>
         <v>118.16999999999999</v>
       </c>
-      <c r="Z14" s="7">
-        <f t="shared" si="10"/>
-        <v>17.28</v>
-      </c>
     </row>
-    <row r="15" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -8905,7 +8869,7 @@
         <v>20.8</v>
       </c>
       <c r="N15" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>147.60000000000002</v>
       </c>
       <c r="O15" s="37">
@@ -8937,12 +8901,8 @@
         <f t="shared" si="9"/>
         <v>25.092000000000006</v>
       </c>
-      <c r="Z15" s="7">
-        <f t="shared" si="10"/>
-        <v>3.5360000000000005</v>
-      </c>
     </row>
-    <row r="16" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
@@ -9003,12 +8963,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
@@ -9069,12 +9025,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
@@ -9144,12 +9096,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="7">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="19" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
@@ -9219,12 +9167,8 @@
         <f t="shared" si="9"/>
         <v>52</v>
       </c>
-      <c r="Z19" s="7">
-        <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
     </row>
-    <row r="20" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>24</v>
       </c>
@@ -9264,7 +9208,7 @@
         <v>15.6</v>
       </c>
       <c r="N20" s="32">
-        <f t="shared" ref="N20:N23" si="12">12*M20-F20</f>
+        <f t="shared" ref="N20:N23" si="11">12*M20-F20</f>
         <v>91.199999999999989</v>
       </c>
       <c r="O20" s="37">
@@ -9296,12 +9240,8 @@
         <f t="shared" si="9"/>
         <v>27.359999999999996</v>
       </c>
-      <c r="Z20" s="7">
-        <f t="shared" si="10"/>
-        <v>4.68</v>
-      </c>
     </row>
-    <row r="21" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>25</v>
       </c>
@@ -9373,12 +9313,8 @@
         <f t="shared" si="9"/>
         <v>47.919999999999995</v>
       </c>
-      <c r="Z21" s="7">
-        <f t="shared" si="10"/>
-        <v>7.28</v>
-      </c>
     </row>
-    <row r="22" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
@@ -9450,12 +9386,8 @@
         <f t="shared" si="9"/>
         <v>84.885849999999991</v>
       </c>
-      <c r="Z22" s="7">
-        <f t="shared" si="10"/>
-        <v>12.95</v>
-      </c>
     </row>
-    <row r="23" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
@@ -9495,7 +9427,7 @@
         <v>48.6</v>
       </c>
       <c r="N23" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>211.20000000000005</v>
       </c>
       <c r="O23" s="37">
@@ -9527,12 +9459,8 @@
         <f t="shared" si="9"/>
         <v>35.904000000000011</v>
       </c>
-      <c r="Z23" s="7">
-        <f t="shared" si="10"/>
-        <v>8.2620000000000005</v>
-      </c>
     </row>
-    <row r="24" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>28</v>
       </c>
@@ -9602,12 +9530,8 @@
         <f t="shared" si="9"/>
         <v>14.288</v>
       </c>
-      <c r="Z24" s="7">
-        <f t="shared" si="10"/>
-        <v>1.9760000000000002</v>
-      </c>
     </row>
-    <row r="25" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
         <v>29</v>
       </c>
@@ -9672,12 +9596,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>30</v>
       </c>
@@ -9748,12 +9668,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>31</v>
       </c>
@@ -9823,12 +9739,8 @@
         <f t="shared" si="9"/>
         <v>27.36</v>
       </c>
-      <c r="Z27" s="7">
-        <f t="shared" si="10"/>
-        <v>4.08</v>
-      </c>
     </row>
-    <row r="28" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>32</v>
       </c>
@@ -9889,12 +9801,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>33</v>
       </c>
@@ -9934,7 +9842,7 @@
         <v>7</v>
       </c>
       <c r="N29" s="32">
-        <f t="shared" ref="N29:N34" si="13">12*M29-F29</f>
+        <f t="shared" ref="N29:N34" si="12">12*M29-F29</f>
         <v>18</v>
       </c>
       <c r="O29" s="37">
@@ -9966,12 +9874,8 @@
         <f t="shared" si="9"/>
         <v>6.3</v>
       </c>
-      <c r="Z29" s="7">
-        <f t="shared" si="10"/>
-        <v>2.4499999999999997</v>
-      </c>
     </row>
-    <row r="30" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>34</v>
       </c>
@@ -10038,12 +9942,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>35</v>
       </c>
@@ -10083,7 +9983,7 @@
         <v>82.364599999999996</v>
       </c>
       <c r="N31" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>331.64319999999998</v>
       </c>
       <c r="O31" s="37">
@@ -10115,12 +10015,8 @@
         <f t="shared" si="9"/>
         <v>331.64319999999998</v>
       </c>
-      <c r="Z31" s="7">
-        <f t="shared" si="10"/>
-        <v>82.364599999999996</v>
-      </c>
     </row>
-    <row r="32" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
@@ -10160,7 +10056,7 @@
         <v>275.75059999999996</v>
       </c>
       <c r="N32" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>983.7501999999995</v>
       </c>
       <c r="O32" s="37">
@@ -10191,12 +10087,8 @@
         <f t="shared" si="9"/>
         <v>1200</v>
       </c>
-      <c r="Z32" s="7">
-        <f t="shared" si="10"/>
-        <v>275.75059999999996</v>
-      </c>
     </row>
-    <row r="33" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>37</v>
       </c>
@@ -10236,7 +10128,7 @@
         <v>10.913399999999999</v>
       </c>
       <c r="N33" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>8.1058000000000021</v>
       </c>
       <c r="O33" s="37">
@@ -10268,12 +10160,8 @@
         <f t="shared" si="9"/>
         <v>8.1058000000000021</v>
       </c>
-      <c r="Z33" s="7">
-        <f t="shared" si="10"/>
-        <v>10.913399999999999</v>
-      </c>
     </row>
-    <row r="34" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
@@ -10313,7 +10201,7 @@
         <v>164.04760000000002</v>
       </c>
       <c r="N34" s="32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>588.3702000000003</v>
       </c>
       <c r="O34" s="37">
@@ -10345,12 +10233,8 @@
         <f t="shared" si="9"/>
         <v>588.3702000000003</v>
       </c>
-      <c r="Z34" s="7">
-        <f t="shared" si="10"/>
-        <v>164.04760000000002</v>
-      </c>
     </row>
-    <row r="35" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>39</v>
       </c>
@@ -10411,12 +10295,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="36" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>40</v>
       </c>
@@ -10456,7 +10336,7 @@
         <v>522.82060000000001</v>
       </c>
       <c r="N36" s="32">
-        <f t="shared" ref="N36:N56" si="14">12*M36-F36</f>
+        <f t="shared" ref="N36:N56" si="13">12*M36-F36</f>
         <v>2661.5042000000003</v>
       </c>
       <c r="O36" s="37">
@@ -10487,12 +10367,8 @@
         <f t="shared" si="9"/>
         <v>3200</v>
       </c>
-      <c r="Z36" s="7">
-        <f t="shared" si="10"/>
-        <v>522.82060000000001</v>
-      </c>
     </row>
-    <row r="37" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>41</v>
       </c>
@@ -10530,7 +10406,7 @@
         <v>28.377199999999998</v>
       </c>
       <c r="N37" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>134.43339999999998</v>
       </c>
       <c r="O37" s="37">
@@ -10562,12 +10438,8 @@
         <f t="shared" si="9"/>
         <v>134.43339999999998</v>
       </c>
-      <c r="Z37" s="7">
-        <f t="shared" si="10"/>
-        <v>28.377199999999998</v>
-      </c>
     </row>
-    <row r="38" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>42</v>
       </c>
@@ -10607,7 +10479,7 @@
         <v>127.5814</v>
       </c>
       <c r="N38" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>514.64279999999997</v>
       </c>
       <c r="O38" s="37">
@@ -10639,12 +10511,8 @@
         <f t="shared" si="9"/>
         <v>514.64279999999997</v>
       </c>
-      <c r="Z38" s="7">
-        <f t="shared" si="10"/>
-        <v>127.5814</v>
-      </c>
     </row>
-    <row r="39" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>43</v>
       </c>
@@ -10684,7 +10552,7 @@
         <v>424.959</v>
       </c>
       <c r="N39" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2420.7819999999997</v>
       </c>
       <c r="O39" s="37">
@@ -10715,12 +10583,8 @@
         <f t="shared" si="9"/>
         <v>2900</v>
       </c>
-      <c r="Z39" s="7">
-        <f t="shared" si="10"/>
-        <v>424.959</v>
-      </c>
     </row>
-    <row r="40" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -10760,7 +10624,7 @@
         <v>198.7766</v>
       </c>
       <c r="N40" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>188.42419999999993</v>
       </c>
       <c r="O40" s="37">
@@ -10791,12 +10655,8 @@
         <f t="shared" si="9"/>
         <v>400</v>
       </c>
-      <c r="Z40" s="7">
-        <f t="shared" si="10"/>
-        <v>198.7766</v>
-      </c>
     </row>
-    <row r="41" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
@@ -10836,7 +10696,7 @@
         <v>71.330399999999997</v>
       </c>
       <c r="N41" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>420.93079999999998</v>
       </c>
       <c r="O41" s="37">
@@ -10868,12 +10728,8 @@
         <f t="shared" si="9"/>
         <v>420.93079999999998</v>
       </c>
-      <c r="Z41" s="7">
-        <f t="shared" si="10"/>
-        <v>71.330399999999997</v>
-      </c>
     </row>
-    <row r="42" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
@@ -10942,12 +10798,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="7">
-        <f t="shared" si="10"/>
-        <v>58.446600000000004</v>
-      </c>
     </row>
-    <row r="43" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>47</v>
       </c>
@@ -10987,7 +10839,7 @@
         <v>62.946199999999997</v>
       </c>
       <c r="N43" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>28.825399999999945</v>
       </c>
       <c r="O43" s="37">
@@ -11019,12 +10871,8 @@
         <f t="shared" si="9"/>
         <v>28.825399999999945</v>
       </c>
-      <c r="Z43" s="7">
-        <f t="shared" si="10"/>
-        <v>62.946199999999997</v>
-      </c>
     </row>
-    <row r="44" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>48</v>
       </c>
@@ -11064,7 +10912,7 @@
         <v>22.197800000000001</v>
       </c>
       <c r="N44" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>158.36959999999999</v>
       </c>
       <c r="O44" s="37">
@@ -11096,12 +10944,8 @@
         <f t="shared" si="9"/>
         <v>158.36959999999999</v>
       </c>
-      <c r="Z44" s="7">
-        <f t="shared" si="10"/>
-        <v>22.197800000000001</v>
-      </c>
     </row>
-    <row r="45" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>49</v>
       </c>
@@ -11170,12 +11014,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z45" s="7">
-        <f t="shared" si="10"/>
-        <v>18.856200000000001</v>
-      </c>
     </row>
-    <row r="46" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>50</v>
       </c>
@@ -11215,7 +11055,7 @@
         <v>32.554199999999994</v>
       </c>
       <c r="N46" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>221.81639999999993</v>
       </c>
       <c r="O46" s="37">
@@ -11251,12 +11091,8 @@
         <f t="shared" si="9"/>
         <v>270</v>
       </c>
-      <c r="Z46" s="7">
-        <f t="shared" si="10"/>
-        <v>32.554199999999994</v>
-      </c>
     </row>
-    <row r="47" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>51</v>
       </c>
@@ -11332,12 +11168,8 @@
         <f t="shared" si="9"/>
         <v>260</v>
       </c>
-      <c r="Z47" s="7">
-        <f t="shared" si="10"/>
-        <v>31.595400000000001</v>
-      </c>
     </row>
-    <row r="48" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>52</v>
       </c>
@@ -11377,7 +11209,7 @@
         <v>46.112400000000001</v>
       </c>
       <c r="N48" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>319.5068</v>
       </c>
       <c r="O48" s="37">
@@ -11409,12 +11241,8 @@
         <f t="shared" si="9"/>
         <v>319.5068</v>
       </c>
-      <c r="Z48" s="7">
-        <f t="shared" si="10"/>
-        <v>46.112400000000001</v>
-      </c>
     </row>
-    <row r="49" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>53</v>
       </c>
@@ -11487,12 +11315,8 @@
         <f t="shared" si="9"/>
         <v>70</v>
       </c>
-      <c r="Z49" s="7">
-        <f t="shared" si="10"/>
-        <v>2.3988</v>
-      </c>
     </row>
-    <row r="50" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>54</v>
       </c>
@@ -11532,7 +11356,7 @@
         <v>70.096400000000003</v>
       </c>
       <c r="N50" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>329.15679999999998</v>
       </c>
       <c r="O50" s="37">
@@ -11568,12 +11392,8 @@
         <f t="shared" si="9"/>
         <v>430</v>
       </c>
-      <c r="Z50" s="7">
-        <f t="shared" si="10"/>
-        <v>70.096400000000003</v>
-      </c>
     </row>
-    <row r="51" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>55</v>
       </c>
@@ -11642,12 +11462,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z51" s="7">
-        <f t="shared" si="10"/>
-        <v>10.8284</v>
-      </c>
     </row>
-    <row r="52" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>56</v>
       </c>
@@ -11718,12 +11534,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="7">
-        <f t="shared" si="10"/>
-        <v>0.24640000000000001</v>
-      </c>
     </row>
-    <row r="53" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>57</v>
       </c>
@@ -11793,12 +11605,8 @@
         <f t="shared" si="9"/>
         <v>75.726600000000005</v>
       </c>
-      <c r="Z53" s="7">
-        <f t="shared" si="10"/>
-        <v>10.774800000000001</v>
-      </c>
     </row>
-    <row r="54" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>58</v>
       </c>
@@ -11867,12 +11675,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z54" s="7">
-        <f t="shared" si="10"/>
-        <v>1.5753999999999999</v>
-      </c>
     </row>
-    <row r="55" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>59</v>
       </c>
@@ -11941,12 +11745,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z55" s="7">
-        <f t="shared" si="10"/>
-        <v>5.0324</v>
-      </c>
     </row>
-    <row r="56" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>60</v>
       </c>
@@ -11986,7 +11786,7 @@
         <v>9</v>
       </c>
       <c r="N56" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="O56" s="37">
@@ -12018,12 +11818,8 @@
         <f t="shared" si="9"/>
         <v>15.399999999999999</v>
       </c>
-      <c r="Z56" s="7">
-        <f t="shared" si="10"/>
-        <v>3.15</v>
-      </c>
     </row>
-    <row r="57" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>61</v>
       </c>
@@ -12095,12 +11891,8 @@
         <f t="shared" si="9"/>
         <v>452.16000000000008</v>
       </c>
-      <c r="Z57" s="7">
-        <f t="shared" si="10"/>
-        <v>63.52000000000001</v>
-      </c>
     </row>
-    <row r="58" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>62</v>
       </c>
@@ -12169,12 +11961,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z58" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>63</v>
       </c>
@@ -12214,7 +12002,7 @@
         <v>82.897599999999997</v>
       </c>
       <c r="N59" s="32">
-        <f t="shared" ref="N59:N67" si="15">12*M59-F59</f>
+        <f t="shared" ref="N59:N67" si="14">12*M59-F59</f>
         <v>374.80119999999988</v>
       </c>
       <c r="O59" s="37">
@@ -12250,12 +12038,8 @@
         <f t="shared" si="9"/>
         <v>460</v>
       </c>
-      <c r="Z59" s="7">
-        <f t="shared" si="10"/>
-        <v>82.897599999999997</v>
-      </c>
     </row>
-    <row r="60" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>64</v>
       </c>
@@ -12327,12 +12111,8 @@
         <f t="shared" si="9"/>
         <v>78.259999999999977</v>
       </c>
-      <c r="Z60" s="7">
-        <f t="shared" si="10"/>
-        <v>10.989999999999998</v>
-      </c>
     </row>
-    <row r="61" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>65</v>
       </c>
@@ -12372,7 +12152,7 @@
         <v>22.372599999999998</v>
       </c>
       <c r="N61" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>141.01419999999996</v>
       </c>
       <c r="O61" s="37">
@@ -12404,12 +12184,8 @@
         <f t="shared" si="9"/>
         <v>141.01419999999996</v>
       </c>
-      <c r="Z61" s="7">
-        <f t="shared" si="10"/>
-        <v>22.372599999999998</v>
-      </c>
     </row>
-    <row r="62" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>66</v>
       </c>
@@ -12449,7 +12225,7 @@
         <v>75.2</v>
       </c>
       <c r="N62" s="32">
-        <f t="shared" ref="N62:N63" si="16">10*M62-F62</f>
+        <f t="shared" ref="N62:N63" si="15">10*M62-F62</f>
         <v>531</v>
       </c>
       <c r="O62" s="37">
@@ -12481,12 +12257,8 @@
         <f t="shared" si="9"/>
         <v>212.4</v>
       </c>
-      <c r="Z62" s="7">
-        <f t="shared" si="10"/>
-        <v>30.080000000000002</v>
-      </c>
     </row>
-    <row r="63" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>67</v>
       </c>
@@ -12526,7 +12298,7 @@
         <v>105</v>
       </c>
       <c r="N63" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>711</v>
       </c>
       <c r="O63" s="37">
@@ -12558,12 +12330,8 @@
         <f t="shared" si="9"/>
         <v>284.40000000000003</v>
       </c>
-      <c r="Z63" s="7">
-        <f t="shared" si="10"/>
-        <v>42</v>
-      </c>
     </row>
-    <row r="64" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>68</v>
       </c>
@@ -12603,7 +12371,7 @@
         <v>31.8</v>
       </c>
       <c r="N64" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>211.60000000000002</v>
       </c>
       <c r="O64" s="37">
@@ -12635,12 +12403,8 @@
         <f t="shared" si="9"/>
         <v>84.640000000000015</v>
       </c>
-      <c r="Z64" s="7">
-        <f t="shared" si="10"/>
-        <v>12.72</v>
-      </c>
     </row>
-    <row r="65" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>69</v>
       </c>
@@ -12709,12 +12473,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z65" s="7">
-        <f t="shared" si="10"/>
-        <v>61.217200000000005</v>
-      </c>
     </row>
-    <row r="66" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>70</v>
       </c>
@@ -12754,7 +12514,7 @@
         <v>96.22</v>
       </c>
       <c r="N66" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>290.79699999999991</v>
       </c>
       <c r="O66" s="37">
@@ -12786,12 +12546,8 @@
         <f t="shared" si="9"/>
         <v>290.79699999999991</v>
       </c>
-      <c r="Z66" s="7">
-        <f t="shared" si="10"/>
-        <v>96.22</v>
-      </c>
     </row>
-    <row r="67" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>71</v>
       </c>
@@ -12831,7 +12587,7 @@
         <v>61.900999999999996</v>
       </c>
       <c r="N67" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>198.35599999999988</v>
       </c>
       <c r="O67" s="37">
@@ -12863,12 +12619,8 @@
         <f t="shared" si="9"/>
         <v>198.35599999999988</v>
       </c>
-      <c r="Z67" s="7">
-        <f t="shared" si="10"/>
-        <v>61.900999999999996</v>
-      </c>
     </row>
-    <row r="68" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>72</v>
       </c>
@@ -12933,12 +12685,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z68" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="69" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>73</v>
       </c>
@@ -12999,12 +12747,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Z69" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
-    <row r="70" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>74</v>
       </c>
@@ -13076,12 +12820,8 @@
         <f t="shared" si="9"/>
         <v>338.32</v>
       </c>
-      <c r="Z70" s="7">
-        <f t="shared" si="10"/>
-        <v>51.84</v>
-      </c>
     </row>
-    <row r="71" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>75</v>
       </c>
@@ -13113,28 +12853,28 @@
         <v>269</v>
       </c>
       <c r="J71" s="7">
-        <f t="shared" ref="J71:J109" si="17">E71-I71</f>
+        <f t="shared" ref="J71:J109" si="16">E71-I71</f>
         <v>-33</v>
       </c>
       <c r="M71" s="7">
-        <f t="shared" ref="M71:M109" si="18">E71/5</f>
+        <f t="shared" ref="M71:M109" si="17">E71/5</f>
         <v>47.2</v>
       </c>
       <c r="N71" s="32">
-        <f t="shared" ref="N71" si="19">12*M71-F71</f>
+        <f t="shared" ref="N71" si="18">12*M71-F71</f>
         <v>203.40000000000009</v>
       </c>
       <c r="O71" s="37">
-        <f t="shared" ref="O71:O105" si="20">N71</f>
+        <f t="shared" ref="O71:O105" si="19">N71</f>
         <v>203.40000000000009</v>
       </c>
       <c r="P71" s="33"/>
       <c r="R71" s="7">
-        <f t="shared" ref="R71:R109" si="21">(F71+O71)/M71</f>
+        <f t="shared" ref="R71:R109" si="20">(F71+O71)/M71</f>
         <v>12.000000000000002</v>
       </c>
       <c r="S71" s="7">
-        <f t="shared" ref="S71:S109" si="22">F71/M71</f>
+        <f t="shared" ref="S71:S109" si="21">F71/M71</f>
         <v>7.6906779661016946</v>
       </c>
       <c r="T71" s="7">
@@ -13150,15 +12890,11 @@
         <v>28</v>
       </c>
       <c r="X71" s="7">
-        <f t="shared" ref="X71:X109" si="23">O71*G71</f>
+        <f t="shared" ref="X71:X109" si="22">O71*G71</f>
         <v>71.190000000000026</v>
       </c>
-      <c r="Z71" s="7">
-        <f t="shared" ref="Z71:Z109" si="24">M71*G71</f>
-        <v>16.52</v>
-      </c>
     </row>
-    <row r="72" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>76</v>
       </c>
@@ -13182,25 +12918,25 @@
         <v>#N/A</v>
       </c>
       <c r="J72" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="7">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N72" s="32"/>
       <c r="O72" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P72" s="33"/>
       <c r="R72" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S72" s="7" t="e">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S72" s="7" t="e">
-        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T72" s="7">
@@ -13216,15 +12952,11 @@
         <v>0</v>
       </c>
       <c r="X72" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z72" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>77</v>
       </c>
@@ -13256,11 +12988,11 @@
         <v>247</v>
       </c>
       <c r="J73" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="7">
-        <f t="shared" si="18"/>
         <v>49.4</v>
       </c>
       <c r="N73" s="32">
@@ -13268,16 +13000,16 @@
         <v>356.30499999999995</v>
       </c>
       <c r="O73" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>356.30499999999995</v>
       </c>
       <c r="P73" s="33"/>
       <c r="R73" s="7">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="S73" s="7">
         <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="S73" s="7">
-        <f t="shared" si="22"/>
         <v>1.7873481781376519</v>
       </c>
       <c r="T73" s="7">
@@ -13293,15 +13025,11 @@
         <v>30</v>
       </c>
       <c r="X73" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>142.52199999999999</v>
       </c>
-      <c r="Z73" s="7">
-        <f t="shared" si="24"/>
-        <v>19.760000000000002</v>
-      </c>
     </row>
-    <row r="74" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>78</v>
       </c>
@@ -13325,25 +13053,25 @@
         <v>#N/A</v>
       </c>
       <c r="J74" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="7">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N74" s="32"/>
       <c r="O74" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P74" s="33"/>
       <c r="R74" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S74" s="7" t="e">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S74" s="7" t="e">
-        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T74" s="7">
@@ -13359,15 +13087,11 @@
         <v>0</v>
       </c>
       <c r="X74" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>79</v>
       </c>
@@ -13399,25 +13123,25 @@
         <v>11</v>
       </c>
       <c r="J75" s="7">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="M75" s="7">
         <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="M75" s="7">
-        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="N75" s="32"/>
       <c r="O75" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P75" s="33"/>
       <c r="R75" s="7">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="S75" s="7">
         <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="S75" s="7">
-        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="T75" s="7">
@@ -13433,15 +13157,11 @@
         <v>6.666666666666667</v>
       </c>
       <c r="X75" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="7">
-        <f t="shared" si="24"/>
-        <v>0.8</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>80</v>
       </c>
@@ -13471,25 +13191,25 @@
         <v>30</v>
       </c>
       <c r="J76" s="7">
+        <f t="shared" si="16"/>
+        <v>-30</v>
+      </c>
+      <c r="M76" s="7">
         <f t="shared" si="17"/>
-        <v>-30</v>
-      </c>
-      <c r="M76" s="7">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N76" s="32"/>
       <c r="O76" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P76" s="33"/>
       <c r="R76" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S76" s="7" t="e">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S76" s="7" t="e">
-        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T76" s="7">
@@ -13505,15 +13225,11 @@
         <v>0</v>
       </c>
       <c r="X76" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z76" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>81</v>
       </c>
@@ -13545,11 +13261,11 @@
         <v>98</v>
       </c>
       <c r="J77" s="7">
+        <f t="shared" si="16"/>
+        <v>-5</v>
+      </c>
+      <c r="M77" s="7">
         <f t="shared" si="17"/>
-        <v>-5</v>
-      </c>
-      <c r="M77" s="7">
-        <f t="shared" si="18"/>
         <v>18.600000000000001</v>
       </c>
       <c r="N77" s="32">
@@ -13557,16 +13273,16 @@
         <v>132.60000000000002</v>
       </c>
       <c r="O77" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>132.60000000000002</v>
       </c>
       <c r="P77" s="33"/>
       <c r="R77" s="7">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="S77" s="7">
         <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="S77" s="7">
-        <f t="shared" si="22"/>
         <v>3.8709677419354835</v>
       </c>
       <c r="T77" s="7">
@@ -13582,15 +13298,11 @@
         <v>10</v>
       </c>
       <c r="X77" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>53.040000000000013</v>
       </c>
-      <c r="Z77" s="7">
-        <f t="shared" si="24"/>
-        <v>7.4400000000000013</v>
-      </c>
     </row>
-    <row r="78" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>82</v>
       </c>
@@ -13622,28 +13334,28 @@
         <v>131.80000000000001</v>
       </c>
       <c r="J78" s="7">
+        <f t="shared" si="16"/>
+        <v>-18.122000000000014</v>
+      </c>
+      <c r="M78" s="7">
         <f t="shared" si="17"/>
-        <v>-18.122000000000014</v>
-      </c>
-      <c r="M78" s="7">
-        <f t="shared" si="18"/>
         <v>22.735599999999998</v>
       </c>
       <c r="N78" s="32">
-        <f t="shared" ref="N78:N83" si="25">12*M78-F78</f>
+        <f t="shared" ref="N78:N83" si="23">12*M78-F78</f>
         <v>138.41919999999996</v>
       </c>
       <c r="O78" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>138.41919999999996</v>
       </c>
       <c r="P78" s="33"/>
       <c r="R78" s="7">
+        <f t="shared" si="20"/>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="S78" s="7">
         <f t="shared" si="21"/>
-        <v>11.999999999999998</v>
-      </c>
-      <c r="S78" s="7">
-        <f t="shared" si="22"/>
         <v>5.9117859216383115</v>
       </c>
       <c r="T78" s="7">
@@ -13659,15 +13371,11 @@
         <v>7.6956666666666669</v>
       </c>
       <c r="X78" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>138.41919999999996</v>
       </c>
-      <c r="Z78" s="7">
-        <f t="shared" si="24"/>
-        <v>22.735599999999998</v>
-      </c>
     </row>
-    <row r="79" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>83</v>
       </c>
@@ -13699,25 +13407,25 @@
         <v>96</v>
       </c>
       <c r="J79" s="7">
+        <f t="shared" si="16"/>
+        <v>-2</v>
+      </c>
+      <c r="M79" s="7">
         <f t="shared" si="17"/>
-        <v>-2</v>
-      </c>
-      <c r="M79" s="7">
-        <f t="shared" si="18"/>
         <v>18.8</v>
       </c>
       <c r="N79" s="32"/>
       <c r="O79" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P79" s="33"/>
       <c r="R79" s="7">
+        <f t="shared" si="20"/>
+        <v>11.648936170212766</v>
+      </c>
+      <c r="S79" s="7">
         <f t="shared" si="21"/>
-        <v>11.648936170212766</v>
-      </c>
-      <c r="S79" s="7">
-        <f t="shared" si="22"/>
         <v>11.648936170212766</v>
       </c>
       <c r="T79" s="7">
@@ -13733,15 +13441,11 @@
         <v>3</v>
       </c>
       <c r="X79" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z79" s="7">
-        <f t="shared" si="24"/>
-        <v>5.2640000000000011</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>84</v>
       </c>
@@ -13773,11 +13477,11 @@
         <v>150.529</v>
       </c>
       <c r="J80" s="7">
+        <f t="shared" si="16"/>
+        <v>-10.584000000000003</v>
+      </c>
+      <c r="M80" s="7">
         <f t="shared" si="17"/>
-        <v>-10.584000000000003</v>
-      </c>
-      <c r="M80" s="7">
-        <f t="shared" si="18"/>
         <v>27.988999999999997</v>
       </c>
       <c r="N80" s="32">
@@ -13785,16 +13489,16 @@
         <v>183.67399999999998</v>
       </c>
       <c r="O80" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>183.67399999999998</v>
       </c>
       <c r="P80" s="33"/>
       <c r="R80" s="7">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="S80" s="7">
         <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="S80" s="7">
-        <f t="shared" si="22"/>
         <v>4.4376362142270178</v>
       </c>
       <c r="T80" s="7">
@@ -13810,15 +13514,11 @@
         <v>17.531333333333333</v>
       </c>
       <c r="X80" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>183.67399999999998</v>
       </c>
-      <c r="Z80" s="7">
-        <f t="shared" si="24"/>
-        <v>27.988999999999997</v>
-      </c>
     </row>
-    <row r="81" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>85</v>
       </c>
@@ -13850,28 +13550,28 @@
         <v>80</v>
       </c>
       <c r="J81" s="7">
+        <f t="shared" si="16"/>
+        <v>-4</v>
+      </c>
+      <c r="M81" s="7">
         <f t="shared" si="17"/>
-        <v>-4</v>
-      </c>
-      <c r="M81" s="7">
-        <f t="shared" si="18"/>
         <v>15.2</v>
       </c>
       <c r="N81" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>70.399999999999977</v>
       </c>
       <c r="O81" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>70.399999999999977</v>
       </c>
       <c r="P81" s="33"/>
       <c r="R81" s="7">
+        <f t="shared" si="20"/>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="S81" s="7">
         <f t="shared" si="21"/>
-        <v>11.999999999999998</v>
-      </c>
-      <c r="S81" s="7">
-        <f t="shared" si="22"/>
         <v>7.3684210526315796</v>
       </c>
       <c r="T81" s="7">
@@ -13887,15 +13587,11 @@
         <v>9.6666666666666661</v>
       </c>
       <c r="X81" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>19.711999999999996</v>
       </c>
-      <c r="Z81" s="7">
-        <f t="shared" si="24"/>
-        <v>4.2560000000000002</v>
-      </c>
     </row>
-    <row r="82" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>86</v>
       </c>
@@ -13927,11 +13623,11 @@
         <v>328</v>
       </c>
       <c r="J82" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="7">
-        <f t="shared" si="18"/>
         <v>65.599999999999994</v>
       </c>
       <c r="N82" s="32">
@@ -13939,16 +13635,16 @@
         <v>451.4</v>
       </c>
       <c r="O82" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>451.4</v>
       </c>
       <c r="P82" s="33"/>
       <c r="R82" s="7">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="S82" s="7">
         <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="S82" s="7">
-        <f t="shared" si="22"/>
         <v>2.1189024390243905</v>
       </c>
       <c r="T82" s="7">
@@ -13964,15 +13660,11 @@
         <v>19</v>
       </c>
       <c r="X82" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>203.13</v>
       </c>
-      <c r="Z82" s="7">
-        <f t="shared" si="24"/>
-        <v>29.52</v>
-      </c>
     </row>
-    <row r="83" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>87</v>
       </c>
@@ -14004,28 +13696,28 @@
         <v>415.95</v>
       </c>
       <c r="J83" s="7">
+        <f t="shared" si="16"/>
+        <v>37.910000000000025</v>
+      </c>
+      <c r="M83" s="7">
         <f t="shared" si="17"/>
-        <v>37.910000000000025</v>
-      </c>
-      <c r="M83" s="7">
-        <f t="shared" si="18"/>
         <v>90.772000000000006</v>
       </c>
       <c r="N83" s="32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>445.31500000000017</v>
       </c>
       <c r="O83" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>445.31500000000017</v>
       </c>
       <c r="P83" s="33"/>
       <c r="R83" s="7">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="S83" s="7">
         <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="S83" s="7">
-        <f t="shared" si="22"/>
         <v>7.0941369585334675</v>
       </c>
       <c r="T83" s="7">
@@ -14041,15 +13733,11 @@
         <v>64.065333333333328</v>
       </c>
       <c r="X83" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>445.31500000000017</v>
       </c>
-      <c r="Z83" s="7">
-        <f t="shared" si="24"/>
-        <v>90.772000000000006</v>
-      </c>
     </row>
-    <row r="84" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>88</v>
       </c>
@@ -14081,25 +13769,25 @@
         <v>47.2</v>
       </c>
       <c r="J84" s="7">
+        <f t="shared" si="16"/>
+        <v>-15.805000000000003</v>
+      </c>
+      <c r="M84" s="7">
         <f t="shared" si="17"/>
-        <v>-15.805000000000003</v>
-      </c>
-      <c r="M84" s="7">
-        <f t="shared" si="18"/>
         <v>6.2789999999999999</v>
       </c>
       <c r="N84" s="32"/>
       <c r="O84" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P84" s="33"/>
       <c r="R84" s="7">
+        <f t="shared" si="20"/>
+        <v>14.150820194298454</v>
+      </c>
+      <c r="S84" s="7">
         <f t="shared" si="21"/>
-        <v>14.150820194298454</v>
-      </c>
-      <c r="S84" s="7">
-        <f t="shared" si="22"/>
         <v>14.150820194298454</v>
       </c>
       <c r="T84" s="7">
@@ -14115,15 +13803,11 @@
         <v>14.552333333333332</v>
       </c>
       <c r="X84" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z84" s="7">
-        <f t="shared" si="24"/>
-        <v>6.2789999999999999</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>89</v>
       </c>
@@ -14155,11 +13839,11 @@
         <v>307</v>
       </c>
       <c r="J85" s="7">
+        <f t="shared" si="16"/>
+        <v>-3</v>
+      </c>
+      <c r="M85" s="7">
         <f t="shared" si="17"/>
-        <v>-3</v>
-      </c>
-      <c r="M85" s="7">
-        <f t="shared" si="18"/>
         <v>60.8</v>
       </c>
       <c r="N85" s="32">
@@ -14167,16 +13851,16 @@
         <v>428.19999999999993</v>
       </c>
       <c r="O85" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>428.19999999999993</v>
       </c>
       <c r="P85" s="33"/>
       <c r="R85" s="7">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="S85" s="7">
         <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="S85" s="7">
-        <f t="shared" si="22"/>
         <v>1.9572368421052633</v>
       </c>
       <c r="T85" s="7">
@@ -14192,15 +13876,11 @@
         <v>26.333333333333332</v>
       </c>
       <c r="X85" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>171.27999999999997</v>
       </c>
-      <c r="Z85" s="7">
-        <f t="shared" si="24"/>
-        <v>24.32</v>
-      </c>
     </row>
-    <row r="86" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>90</v>
       </c>
@@ -14232,11 +13912,11 @@
         <v>237</v>
       </c>
       <c r="J86" s="7">
+        <f t="shared" si="16"/>
+        <v>-2</v>
+      </c>
+      <c r="M86" s="7">
         <f t="shared" si="17"/>
-        <v>-2</v>
-      </c>
-      <c r="M86" s="7">
-        <f t="shared" si="18"/>
         <v>47</v>
       </c>
       <c r="N86" s="32">
@@ -14244,16 +13924,16 @@
         <v>309</v>
       </c>
       <c r="O86" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>309</v>
       </c>
       <c r="P86" s="33"/>
       <c r="R86" s="7">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="S86" s="7">
         <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="S86" s="7">
-        <f t="shared" si="22"/>
         <v>3.4255319148936172</v>
       </c>
       <c r="T86" s="7">
@@ -14269,15 +13949,11 @@
         <v>8</v>
       </c>
       <c r="X86" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>123.60000000000001</v>
       </c>
-      <c r="Z86" s="7">
-        <f t="shared" si="24"/>
-        <v>18.8</v>
-      </c>
     </row>
-    <row r="87" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>91</v>
       </c>
@@ -14307,25 +13983,25 @@
         <v>31</v>
       </c>
       <c r="J87" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M87" s="7">
-        <f t="shared" si="18"/>
         <v>6.2</v>
       </c>
       <c r="N87" s="32"/>
       <c r="O87" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P87" s="33"/>
       <c r="R87" s="7">
+        <f t="shared" si="20"/>
+        <v>-1.7741935483870968</v>
+      </c>
+      <c r="S87" s="7">
         <f t="shared" si="21"/>
-        <v>-1.7741935483870968</v>
-      </c>
-      <c r="S87" s="7">
-        <f t="shared" si="22"/>
         <v>-1.7741935483870968</v>
       </c>
       <c r="T87" s="7">
@@ -14341,15 +14017,11 @@
         <v>0</v>
       </c>
       <c r="X87" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z87" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>92</v>
       </c>
@@ -14381,11 +14053,11 @@
         <v>175</v>
       </c>
       <c r="J88" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="7">
-        <f t="shared" si="18"/>
         <v>35</v>
       </c>
       <c r="N88" s="32">
@@ -14393,16 +14065,16 @@
         <v>252</v>
       </c>
       <c r="O88" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>252</v>
       </c>
       <c r="P88" s="33"/>
       <c r="R88" s="7">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="S88" s="7">
         <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="S88" s="7">
-        <f t="shared" si="22"/>
         <v>0.8</v>
       </c>
       <c r="T88" s="7">
@@ -14418,15 +14090,11 @@
         <v>8</v>
       </c>
       <c r="X88" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>100.80000000000001</v>
       </c>
-      <c r="Z88" s="7">
-        <f t="shared" si="24"/>
-        <v>14</v>
-      </c>
     </row>
-    <row r="89" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>93</v>
       </c>
@@ -14458,25 +14126,25 @@
         <v>117.8</v>
       </c>
       <c r="J89" s="7">
+        <f t="shared" si="16"/>
+        <v>9.4000000000008299E-2</v>
+      </c>
+      <c r="M89" s="7">
         <f t="shared" si="17"/>
-        <v>9.4000000000008299E-2</v>
-      </c>
-      <c r="M89" s="7">
-        <f t="shared" si="18"/>
         <v>23.578800000000001</v>
       </c>
       <c r="N89" s="32"/>
       <c r="O89" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P89" s="33"/>
       <c r="R89" s="7">
+        <f t="shared" si="20"/>
+        <v>14.286859382156853</v>
+      </c>
+      <c r="S89" s="7">
         <f t="shared" si="21"/>
-        <v>14.286859382156853</v>
-      </c>
-      <c r="S89" s="7">
-        <f t="shared" si="22"/>
         <v>14.286859382156853</v>
       </c>
       <c r="T89" s="7">
@@ -14492,15 +14160,11 @@
         <v>40.792666666666669</v>
       </c>
       <c r="X89" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="7">
-        <f t="shared" si="24"/>
-        <v>23.578800000000001</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>94</v>
       </c>
@@ -14532,28 +14196,28 @@
         <v>135.6</v>
       </c>
       <c r="J90" s="7">
+        <f t="shared" si="16"/>
+        <v>2.7290000000000134</v>
+      </c>
+      <c r="M90" s="7">
         <f t="shared" si="17"/>
-        <v>2.7290000000000134</v>
-      </c>
-      <c r="M90" s="7">
-        <f t="shared" si="18"/>
         <v>27.665800000000001</v>
       </c>
       <c r="N90" s="32">
-        <f t="shared" ref="N90:N100" si="26">12*M90-F90</f>
+        <f t="shared" ref="N90:N100" si="24">12*M90-F90</f>
         <v>25.690600000000018</v>
       </c>
       <c r="O90" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>25.690600000000018</v>
       </c>
       <c r="P90" s="33"/>
       <c r="R90" s="7">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="S90" s="7">
         <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="S90" s="7">
-        <f t="shared" si="22"/>
         <v>11.071395007554452</v>
       </c>
       <c r="T90" s="7">
@@ -14569,15 +14233,11 @@
         <v>36.018999999999998</v>
       </c>
       <c r="X90" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>25.690600000000018</v>
       </c>
-      <c r="Z90" s="7">
-        <f t="shared" si="24"/>
-        <v>27.665800000000001</v>
-      </c>
     </row>
-    <row r="91" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>95</v>
       </c>
@@ -14609,25 +14269,25 @@
         <v>11</v>
       </c>
       <c r="J91" s="7">
+        <f t="shared" si="16"/>
+        <v>-6</v>
+      </c>
+      <c r="M91" s="7">
         <f t="shared" si="17"/>
-        <v>-6</v>
-      </c>
-      <c r="M91" s="7">
-        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="N91" s="32"/>
       <c r="O91" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P91" s="33"/>
       <c r="R91" s="7">
+        <f t="shared" si="20"/>
+        <v>103</v>
+      </c>
+      <c r="S91" s="7">
         <f t="shared" si="21"/>
-        <v>103</v>
-      </c>
-      <c r="S91" s="7">
-        <f t="shared" si="22"/>
         <v>103</v>
       </c>
       <c r="T91" s="7">
@@ -14643,15 +14303,11 @@
         <v>9.3333333333333339</v>
       </c>
       <c r="X91" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z91" s="7">
-        <f t="shared" si="24"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
         <v>96</v>
       </c>
@@ -14679,25 +14335,25 @@
         <v>2</v>
       </c>
       <c r="J92" s="7">
+        <f t="shared" si="16"/>
+        <v>-2</v>
+      </c>
+      <c r="M92" s="7">
         <f t="shared" si="17"/>
-        <v>-2</v>
-      </c>
-      <c r="M92" s="7">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N92" s="32"/>
       <c r="O92" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P92" s="33"/>
       <c r="R92" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S92" s="7" t="e">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S92" s="7" t="e">
-        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T92" s="7">
@@ -14717,15 +14373,11 @@
         <v>нет в бланке заказов</v>
       </c>
       <c r="X92" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z92" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>97</v>
       </c>
@@ -14757,11 +14409,11 @@
         <v>296</v>
       </c>
       <c r="J93" s="7">
+        <f t="shared" si="16"/>
+        <v>-10</v>
+      </c>
+      <c r="M93" s="7">
         <f t="shared" si="17"/>
-        <v>-10</v>
-      </c>
-      <c r="M93" s="7">
-        <f t="shared" si="18"/>
         <v>57.2</v>
       </c>
       <c r="N93" s="32">
@@ -14769,16 +14421,16 @@
         <v>424.6</v>
       </c>
       <c r="O93" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>424.6</v>
       </c>
       <c r="P93" s="33"/>
       <c r="R93" s="7">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="S93" s="7">
         <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="S93" s="7">
-        <f t="shared" si="22"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="T93" s="7">
@@ -14794,15 +14446,11 @@
         <v>17</v>
       </c>
       <c r="X93" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>157.102</v>
       </c>
-      <c r="Z93" s="7">
-        <f t="shared" si="24"/>
-        <v>21.164000000000001</v>
-      </c>
     </row>
-    <row r="94" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>98</v>
       </c>
@@ -14834,11 +14482,11 @@
         <v>138</v>
       </c>
       <c r="J94" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M94" s="7">
-        <f t="shared" si="18"/>
         <v>27.6</v>
       </c>
       <c r="N94" s="32">
@@ -14846,16 +14494,16 @@
         <v>206</v>
       </c>
       <c r="O94" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>206</v>
       </c>
       <c r="P94" s="33"/>
       <c r="R94" s="7">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="S94" s="7">
         <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="S94" s="7">
-        <f t="shared" si="22"/>
         <v>2.5362318840579707</v>
       </c>
       <c r="T94" s="7">
@@ -14871,15 +14519,11 @@
         <v>14.666666666666666</v>
       </c>
       <c r="X94" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>123.6</v>
       </c>
-      <c r="Z94" s="7">
-        <f t="shared" si="24"/>
-        <v>16.559999999999999</v>
-      </c>
     </row>
-    <row r="95" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>99</v>
       </c>
@@ -14911,11 +14555,11 @@
         <v>169</v>
       </c>
       <c r="J95" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="7">
-        <f t="shared" si="18"/>
         <v>33.799999999999997</v>
       </c>
       <c r="N95" s="32">
@@ -14923,16 +14567,16 @@
         <v>231.79999999999995</v>
       </c>
       <c r="O95" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>231.79999999999995</v>
       </c>
       <c r="P95" s="33"/>
       <c r="R95" s="7">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="S95" s="7">
         <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="S95" s="7">
-        <f t="shared" si="22"/>
         <v>4.1420118343195274</v>
       </c>
       <c r="T95" s="7">
@@ -14948,15 +14592,11 @@
         <v>15</v>
       </c>
       <c r="X95" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>92.719999999999985</v>
       </c>
-      <c r="Z95" s="7">
-        <f t="shared" si="24"/>
-        <v>13.52</v>
-      </c>
     </row>
-    <row r="96" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>100</v>
       </c>
@@ -14988,11 +14628,11 @@
         <v>186</v>
       </c>
       <c r="J96" s="7">
+        <f t="shared" si="16"/>
+        <v>-2</v>
+      </c>
+      <c r="M96" s="7">
         <f t="shared" si="17"/>
-        <v>-2</v>
-      </c>
-      <c r="M96" s="7">
-        <f t="shared" si="18"/>
         <v>36.799999999999997</v>
       </c>
       <c r="N96" s="32">
@@ -15000,16 +14640,16 @@
         <v>266.2</v>
       </c>
       <c r="O96" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>266.2</v>
       </c>
       <c r="P96" s="33"/>
       <c r="R96" s="7">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="S96" s="7">
         <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="S96" s="7">
-        <f t="shared" si="22"/>
         <v>1.7663043478260871</v>
       </c>
       <c r="T96" s="7">
@@ -15025,15 +14665,11 @@
         <v>5</v>
       </c>
       <c r="X96" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>93.169999999999987</v>
       </c>
-      <c r="Z96" s="7">
-        <f t="shared" si="24"/>
-        <v>12.879999999999999</v>
-      </c>
     </row>
-    <row r="97" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>101</v>
       </c>
@@ -15065,11 +14701,11 @@
         <v>132</v>
       </c>
       <c r="J97" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="7">
-        <f t="shared" si="18"/>
         <v>26.4</v>
       </c>
       <c r="N97" s="32">
@@ -15077,16 +14713,16 @@
         <v>195.2</v>
       </c>
       <c r="O97" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>195.2</v>
       </c>
       <c r="P97" s="33"/>
       <c r="R97" s="7">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="S97" s="7">
         <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="S97" s="7">
-        <f t="shared" si="22"/>
         <v>0.60606060606060608</v>
       </c>
       <c r="T97" s="7">
@@ -15102,15 +14738,11 @@
         <v>12.666666666666666</v>
       </c>
       <c r="X97" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>117.11999999999999</v>
       </c>
-      <c r="Z97" s="7">
-        <f t="shared" si="24"/>
-        <v>15.839999999999998</v>
-      </c>
     </row>
-    <row r="98" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>102</v>
       </c>
@@ -15142,28 +14774,28 @@
         <v>24</v>
       </c>
       <c r="J98" s="7">
+        <f t="shared" si="16"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="M98" s="7">
         <f t="shared" si="17"/>
-        <v>-0.39999999999999858</v>
-      </c>
-      <c r="M98" s="7">
-        <f t="shared" si="18"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="N98" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>8.6400000000000077</v>
       </c>
       <c r="O98" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>8.6400000000000077</v>
       </c>
       <c r="P98" s="33"/>
       <c r="R98" s="7">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="S98" s="7">
         <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="S98" s="7">
-        <f t="shared" si="22"/>
         <v>10.169491525423727</v>
       </c>
       <c r="T98" s="7">
@@ -15179,15 +14811,11 @@
         <v>8.3333333333333339</v>
       </c>
       <c r="X98" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3.4560000000000031</v>
       </c>
-      <c r="Z98" s="7">
-        <f t="shared" si="24"/>
-        <v>1.8880000000000003</v>
-      </c>
     </row>
-    <row r="99" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>103</v>
       </c>
@@ -15219,28 +14847,28 @@
         <v>78</v>
       </c>
       <c r="J99" s="7">
+        <f t="shared" si="16"/>
+        <v>-12</v>
+      </c>
+      <c r="M99" s="7">
         <f t="shared" si="17"/>
-        <v>-12</v>
-      </c>
-      <c r="M99" s="7">
-        <f t="shared" si="18"/>
         <v>13.2</v>
       </c>
       <c r="N99" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>62.399999999999977</v>
       </c>
       <c r="O99" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>62.399999999999977</v>
       </c>
       <c r="P99" s="33"/>
       <c r="R99" s="7">
+        <f t="shared" si="20"/>
+        <v>11.999999999999998</v>
+      </c>
+      <c r="S99" s="7">
         <f t="shared" si="21"/>
-        <v>11.999999999999998</v>
-      </c>
-      <c r="S99" s="7">
-        <f t="shared" si="22"/>
         <v>7.2727272727272734</v>
       </c>
       <c r="T99" s="7">
@@ -15256,15 +14884,11 @@
         <v>14.666666666666666</v>
       </c>
       <c r="X99" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>28.079999999999991</v>
       </c>
-      <c r="Z99" s="7">
-        <f t="shared" si="24"/>
-        <v>5.9399999999999995</v>
-      </c>
     </row>
-    <row r="100" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>104</v>
       </c>
@@ -15296,28 +14920,28 @@
         <v>33.445999999999998</v>
       </c>
       <c r="J100" s="7">
+        <f t="shared" si="16"/>
+        <v>0.12700000000000244</v>
+      </c>
+      <c r="M100" s="7">
         <f t="shared" si="17"/>
-        <v>0.12700000000000244</v>
-      </c>
-      <c r="M100" s="7">
-        <f t="shared" si="18"/>
         <v>6.7145999999999999</v>
       </c>
       <c r="N100" s="32">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>24.753199999999993</v>
       </c>
       <c r="O100" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>24.753199999999993</v>
       </c>
       <c r="P100" s="33"/>
       <c r="R100" s="7">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="S100" s="7">
         <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="S100" s="7">
-        <f t="shared" si="22"/>
         <v>8.3135257498585187</v>
       </c>
       <c r="T100" s="7">
@@ -15333,15 +14957,11 @@
         <v>4.9943333333333335</v>
       </c>
       <c r="X100" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>24.753199999999993</v>
       </c>
-      <c r="Z100" s="7">
-        <f t="shared" si="24"/>
-        <v>6.7145999999999999</v>
-      </c>
     </row>
-    <row r="101" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>105</v>
       </c>
@@ -15365,27 +14985,27 @@
         <v>#N/A</v>
       </c>
       <c r="J101" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="7">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N101" s="32"/>
       <c r="O101" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P101" s="33"/>
       <c r="R101" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S101" s="7" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S101" s="7" t="e">
-        <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="T101" s="7">
         <f>VLOOKUP(A101,[1]TDSheet!$A:$U,21,0)</f>
         <v>0</v>
@@ -15399,15 +15019,11 @@
         <v>0</v>
       </c>
       <c r="X101" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z101" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>106</v>
       </c>
@@ -15437,25 +15053,25 @@
         <v>7</v>
       </c>
       <c r="J102" s="7">
+        <f t="shared" si="16"/>
+        <v>-4</v>
+      </c>
+      <c r="M102" s="7">
         <f t="shared" si="17"/>
-        <v>-4</v>
-      </c>
-      <c r="M102" s="7">
-        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="N102" s="32"/>
       <c r="O102" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P102" s="33"/>
       <c r="R102" s="7">
+        <f t="shared" si="20"/>
+        <v>78.333333333333343</v>
+      </c>
+      <c r="S102" s="7">
         <f t="shared" si="21"/>
-        <v>78.333333333333343</v>
-      </c>
-      <c r="S102" s="7">
-        <f t="shared" si="22"/>
         <v>78.333333333333343</v>
       </c>
       <c r="T102" s="7">
@@ -15475,15 +15091,11 @@
         <v>нужно увеличить продажи</v>
       </c>
       <c r="X102" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z102" s="7">
-        <f t="shared" si="24"/>
-        <v>0.21</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>107</v>
       </c>
@@ -15507,25 +15119,25 @@
         <v>45</v>
       </c>
       <c r="J103" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M103" s="7">
-        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N103" s="32"/>
       <c r="O103" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P103" s="33"/>
       <c r="R103" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S103" s="7" t="e">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S103" s="7" t="e">
-        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T103" s="7">
@@ -15544,15 +15156,11 @@
         <v>135</v>
       </c>
       <c r="X103" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z103" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="25" t="s">
         <v>108</v>
       </c>
@@ -15581,25 +15189,25 @@
         <v>2</v>
       </c>
       <c r="J104" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M104" s="7">
-        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="N104" s="32"/>
       <c r="O104" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P104" s="33"/>
       <c r="R104" s="7">
+        <f t="shared" si="20"/>
+        <v>-17.5</v>
+      </c>
+      <c r="S104" s="7">
         <f t="shared" si="21"/>
-        <v>-17.5</v>
-      </c>
-      <c r="S104" s="7">
-        <f t="shared" si="22"/>
         <v>-17.5</v>
       </c>
       <c r="T104" s="7">
@@ -15618,15 +15226,11 @@
         <v>134</v>
       </c>
       <c r="X104" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z104" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>109</v>
       </c>
@@ -15654,11 +15258,11 @@
         <v>10.9</v>
       </c>
       <c r="J105" s="7">
+        <f t="shared" si="16"/>
+        <v>-1.1070000000000011</v>
+      </c>
+      <c r="M105" s="7">
         <f t="shared" si="17"/>
-        <v>-1.1070000000000011</v>
-      </c>
-      <c r="M105" s="7">
-        <f t="shared" si="18"/>
         <v>1.9585999999999999</v>
       </c>
       <c r="N105" s="32">
@@ -15666,16 +15270,16 @@
         <v>14.3218</v>
       </c>
       <c r="O105" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>14.3218</v>
       </c>
       <c r="P105" s="33"/>
       <c r="R105" s="7">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="S105" s="7">
         <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="S105" s="7">
-        <f t="shared" si="22"/>
         <v>0.68773613805779643</v>
       </c>
       <c r="T105" s="7">
@@ -15691,15 +15295,11 @@
         <v>131</v>
       </c>
       <c r="X105" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>14.3218</v>
       </c>
-      <c r="Z105" s="7">
-        <f t="shared" si="24"/>
-        <v>1.9585999999999999</v>
-      </c>
     </row>
-    <row r="106" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>110</v>
       </c>
@@ -15728,24 +15328,24 @@
         <v>84</v>
       </c>
       <c r="J106" s="7">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="M106" s="7">
         <f t="shared" si="17"/>
-        <v>-1</v>
-      </c>
-      <c r="M106" s="7">
-        <f t="shared" si="18"/>
         <v>16.600000000000001</v>
       </c>
       <c r="N106" s="32"/>
       <c r="O106" s="37"/>
       <c r="P106" s="33"/>
       <c r="R106" s="7">
+        <f t="shared" si="20"/>
+        <v>25.120481927710841</v>
+      </c>
+      <c r="S106" s="7">
         <f t="shared" si="21"/>
         <v>25.120481927710841</v>
       </c>
-      <c r="S106" s="7">
-        <f t="shared" si="22"/>
-        <v>25.120481927710841</v>
-      </c>
       <c r="T106" s="7">
         <v>0</v>
       </c>
@@ -15759,15 +15359,11 @@
         <v>133</v>
       </c>
       <c r="X106" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z106" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>111</v>
       </c>
@@ -15796,24 +15392,24 @@
         <v>164</v>
       </c>
       <c r="J107" s="7">
+        <f t="shared" si="16"/>
+        <v>-7</v>
+      </c>
+      <c r="M107" s="7">
         <f t="shared" si="17"/>
-        <v>-7</v>
-      </c>
-      <c r="M107" s="7">
-        <f t="shared" si="18"/>
         <v>31.4</v>
       </c>
       <c r="N107" s="32"/>
       <c r="O107" s="37"/>
       <c r="P107" s="33"/>
       <c r="R107" s="7">
+        <f t="shared" si="20"/>
+        <v>10.923566878980893</v>
+      </c>
+      <c r="S107" s="7">
         <f t="shared" si="21"/>
         <v>10.923566878980893</v>
       </c>
-      <c r="S107" s="7">
-        <f t="shared" si="22"/>
-        <v>10.923566878980893</v>
-      </c>
       <c r="T107" s="7">
         <v>0</v>
       </c>
@@ -15827,15 +15423,11 @@
         <v>133</v>
       </c>
       <c r="X107" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z107" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>112</v>
       </c>
@@ -15864,24 +15456,24 @@
         <v>164</v>
       </c>
       <c r="J108" s="7">
+        <f t="shared" si="16"/>
+        <v>-7</v>
+      </c>
+      <c r="M108" s="7">
         <f t="shared" si="17"/>
-        <v>-7</v>
-      </c>
-      <c r="M108" s="7">
-        <f t="shared" si="18"/>
         <v>31.4</v>
       </c>
       <c r="N108" s="32"/>
       <c r="O108" s="37"/>
       <c r="P108" s="33"/>
       <c r="R108" s="7">
+        <f t="shared" si="20"/>
+        <v>10.923566878980893</v>
+      </c>
+      <c r="S108" s="7">
         <f t="shared" si="21"/>
         <v>10.923566878980893</v>
       </c>
-      <c r="S108" s="7">
-        <f t="shared" si="22"/>
-        <v>10.923566878980893</v>
-      </c>
       <c r="T108" s="7">
         <v>0</v>
       </c>
@@ -15895,15 +15487,11 @@
         <v>133</v>
       </c>
       <c r="X108" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z108" s="7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>113</v>
       </c>
@@ -15931,24 +15519,24 @@
         <v>18</v>
       </c>
       <c r="J109" s="7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="7">
-        <f t="shared" si="18"/>
         <v>3.6</v>
       </c>
       <c r="N109" s="32"/>
       <c r="O109" s="38"/>
       <c r="P109" s="33"/>
       <c r="R109" s="7">
+        <f t="shared" si="20"/>
+        <v>58.333333333333329</v>
+      </c>
+      <c r="S109" s="7">
         <f t="shared" si="21"/>
         <v>58.333333333333329</v>
       </c>
-      <c r="S109" s="7">
-        <f t="shared" si="22"/>
-        <v>58.333333333333329</v>
-      </c>
       <c r="T109" s="7">
         <v>0</v>
       </c>
@@ -15962,12 +15550,8 @@
         <v>132</v>
       </c>
       <c r="X109" s="7">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Z109" s="7">
-        <f t="shared" si="24"/>
-        <v>0.39600000000000002</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
